--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2495942.615589682</v>
+        <v>2493685.593680599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>137.4930623465105</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.75835873167584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>98.09203546875366</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>101.5798714036932</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>60.92600812502312</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>43.80431246487652</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938887</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964037</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534543</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>2.398536716038013</v>
+        <v>35.01474696300778</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>114.4746605491548</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,10 +1859,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>233.6963945716649</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192023</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>133.2205257453333</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.17970120049777</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>250.8492163587577</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534553</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>155.381726143085</v>
+        <v>13.89072837997169</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.2687961020392</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.18373136743683</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>109.7472660450981</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.9112437681527</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>178.775724893532</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>147.5592177298071</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4973180339886</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164203</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430362</v>
+        <v>188.7127700430366</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877635</v>
+        <v>218.4926939877639</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172072</v>
+        <v>285.1555829172076</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>16.23606563957809</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481857</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006315</v>
+        <v>224.6534001006319</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>217.5283980636895</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3797,7 +3797,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433886</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>571.9594663958189</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>213.6937677890684</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>213.6937677890684</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>206.748267039865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>192.8248629784559</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>192.8248629784559</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.7314582348853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>530.7314582348853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>530.7314582348853</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.7314582348853</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1659.880644283886</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>905.1298747452304</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>898.1843739960269</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>480.2205658942138</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.0258459302166</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2539.514470837914</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2539.514470837914</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2539.514470837914</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2539.514470837914</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2539.514470837914</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2539.514470837914</v>
+        <v>2050.019976259698</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1659.880644283886</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4744,28 +4744,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036444</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035238</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>504.8469194967733</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0586668985291</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1131661493256</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>98.18976208791648</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>98.18976208791648</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610025</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551156</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143015</v>
@@ -5027,7 +5027,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,55 +5036,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660292</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W13" t="n">
-        <v>1507.550329366009</v>
+        <v>873.9047229025748</v>
       </c>
       <c r="X13" t="n">
-        <v>1279.560778467991</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.768199324461</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
         <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
         <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001596</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364129</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5589,31 +5589,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>211.1920047000668</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1217.00354504478</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>962.3190568388932</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W19" t="n">
-        <v>672.9018868019325</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X19" t="n">
-        <v>444.9123359039152</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870721</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839447</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,22 +5993,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6017,22 +6017,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,28 +6066,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.4168978689405</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1911.71750529612</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1720.031621122946</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W25" t="n">
-        <v>937.4064487669577</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4168978689405</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4168978689405</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755164</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993047</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.939727972687</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V28" t="n">
-        <v>1131.2552397668</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W28" t="n">
-        <v>841.8380697298392</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X28" t="n">
-        <v>613.848518831822</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143015</v>
@@ -6449,10 +6449,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232733</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.4509819463048</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>477.6147385213424</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>327.4980991090066</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>179.5850055266135</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839444</v>
+        <v>179.5850055266135</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839444</v>
+        <v>179.5850055266135</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839444</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838515</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858342</v>
+        <v>646.5509214492492</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.904311342304</v>
+        <v>646.5509214492492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>673.3827746590084</v>
+        <v>245.6776738607304</v>
       </c>
       <c r="C34" t="n">
-        <v>504.4465917311015</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D34" t="n">
-        <v>354.3299523187657</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>206.4168587363724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>206.4168587363724</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1749.430944449956</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.576850674229</v>
+        <v>1527.664329019482</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1238.561462145125</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>983.8769739392384</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570258</v>
+        <v>694.4598039022778</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590084</v>
+        <v>466.4702530042605</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.3827746590084</v>
+        <v>245.6776738607304</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>384.5070301693999</v>
+        <v>244.6107493269874</v>
       </c>
       <c r="C37" t="n">
-        <v>384.5070301693999</v>
+        <v>244.6107493269874</v>
       </c>
       <c r="D37" t="n">
-        <v>235.4573152908073</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>235.4573152908073</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>235.4573152908073</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308516</v>
+        <v>141.7293596308512</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152495</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992673</v>
+        <v>664.3677264992663</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988876</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349446</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452715</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112101</v>
+        <v>1176.590882403368</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439958</v>
+        <v>1160.190816100764</v>
       </c>
       <c r="W37" t="n">
-        <v>1011.736851439958</v>
+        <v>871.8405705975464</v>
       </c>
       <c r="X37" t="n">
-        <v>784.8142250756835</v>
+        <v>644.9179442332718</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.0885704658965</v>
+        <v>425.1922896234844</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160444</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036717</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,22 +7597,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,22 +7646,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7837,19 +7837,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
         <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>79.7046587084543</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>216.9877583263346</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>73.3473165083285</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>229.1155640189928</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>189.7998007892655</v>
+        <v>160.332989634755</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,13 +10118,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>64.28566532692616</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476862</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>272.8828616575882</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10589,22 +10589,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>60.66917680434136</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>341.5962138876753</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>85.51392558917598</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>284.124461620553</v>
+        <v>251.5082513735832</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>105.0742887270144</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>34.14081246905674</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>52.51544363394794</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696693</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>92.48912964370385</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>44.75245146954956</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>35.6737819778333</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.8301120625279</v>
+        <v>272.3211098256412</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.5631840798981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>61.57128354688398</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>56.27854221393008</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>73.85778156328919</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>26.47223493663391</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259151</v>
+        <v>143.6987596259155</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143244</v>
+        <v>95.29616512143281</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>234.8453223958446</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481853</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812123.5194693924</v>
+        <v>812123.519469392</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
-        <v>595622.6803304752</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="F2" t="n">
-        <v>595622.6803304754</v>
+        <v>595622.6803304751</v>
       </c>
       <c r="G2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304751</v>
       </c>
       <c r="H2" t="n">
         <v>595622.6803304746</v>
       </c>
       <c r="I2" t="n">
+        <v>595622.6803304753</v>
+      </c>
+      <c r="J2" t="n">
         <v>595622.680330475</v>
       </c>
-      <c r="J2" t="n">
-        <v>595622.6803304751</v>
-      </c>
       <c r="K2" t="n">
-        <v>595622.6803304751</v>
+        <v>595622.6803304752</v>
       </c>
       <c r="L2" t="n">
-        <v>595622.680330475</v>
+        <v>595622.6803304753</v>
       </c>
       <c r="M2" t="n">
-        <v>596075.9558099117</v>
+        <v>596075.9558099122</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="O2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.99932865403439e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414968</v>
+        <v>36735.10506414979</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.4923191899</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918987</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918995</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.4923191899</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811462</v>
+        <v>18496.05294811448</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740894</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371369</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240394.3167368698</v>
+        <v>-240394.3167368692</v>
       </c>
       <c r="C6" t="n">
-        <v>349573.5624776754</v>
+        <v>349573.562477675</v>
       </c>
       <c r="D6" t="n">
         <v>349573.5624776752</v>
       </c>
       <c r="E6" t="n">
-        <v>-246286.7442358352</v>
+        <v>-246353.9397260612</v>
       </c>
       <c r="F6" t="n">
-        <v>481090.6697575719</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="G6" t="n">
-        <v>481090.6697575714</v>
+        <v>481023.4742673457</v>
       </c>
       <c r="H6" t="n">
-        <v>481090.6697575711</v>
+        <v>481023.4742673452</v>
       </c>
       <c r="I6" t="n">
-        <v>481090.6697575714</v>
+        <v>481023.4742673459</v>
       </c>
       <c r="J6" t="n">
-        <v>304667.4505649786</v>
+        <v>304600.2550747526</v>
       </c>
       <c r="K6" t="n">
-        <v>481090.6697575715</v>
+        <v>481023.4742673458</v>
       </c>
       <c r="L6" t="n">
-        <v>481090.6697575712</v>
+        <v>481023.474267346</v>
       </c>
       <c r="M6" t="n">
-        <v>350620.2672125731</v>
+        <v>350554.5826406131</v>
       </c>
       <c r="N6" t="n">
-        <v>445107.8980225516</v>
+        <v>445107.8980225518</v>
       </c>
       <c r="O6" t="n">
         <v>481843.0030867016</v>
       </c>
       <c r="P6" t="n">
-        <v>481843.0030867016</v>
+        <v>481843.0030867014</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,7 +26811,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="K4" t="n">
         <v>1194.51293060493</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.749160817542988e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405324</v>
       </c>
       <c r="N2" t="n">
-        <v>45.9188813301869</v>
+        <v>45.91888133018724</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.749160817542988e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14.43825389835075</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.8262946204189</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.83928077610759</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.83584140527834</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>225.3558661169546</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>108.1270037799847</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082689</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.6850305926335</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.001865257421741e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.815884897519829e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405683</v>
+        <v>1.056255288405292</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>587.7576595966734</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>769.2895937392461</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,10 +35814,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>625.64915192124</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>684.7056784113249</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>742.1016362021768</v>
+        <v>712.6348250476665</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>616.5875007398377</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359052</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>610.0741482129887</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,7 +37239,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>459.4311630237132</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147188</v>
+        <v>46.63467190147152</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818891</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559454</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110454</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629931</v>
+        <v>79.45049382629895</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>880.517329717902</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>624.4350414194028</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
